--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PR_COA_SEC_AgencyObjectProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PR_COA_SEC_AgencyObjectProfile_EditProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\MStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CDAD1F-3D49-4055-9B1F-DCE56AF0AD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013308B6-B1CC-42CC-80DE-21898B18BB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Keyword</t>
   </si>
@@ -49,9 +49,6 @@
     <t>smallWaitForElementPresent</t>
   </si>
   <si>
-    <t>txt_searchBox</t>
-  </si>
-  <si>
     <t>getData=WaitForPageLoad</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>button_saveDetails</t>
   </si>
   <si>
-    <t>button_confirmSave</t>
-  </si>
-  <si>
     <t>Iteration</t>
   </si>
   <si>
@@ -103,10 +97,13 @@
     <t>txt_title</t>
   </si>
   <si>
-    <t>title_orgCodeProfile_ocp</t>
-  </si>
-  <si>
-    <t>NAN9</t>
+    <t>txt_search</t>
+  </si>
+  <si>
+    <t>link_agencyObjectProfile_wait</t>
+  </si>
+  <si>
+    <t>button_save</t>
   </si>
 </sst>
 </file>
@@ -502,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -554,13 +551,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -569,13 +566,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -587,10 +584,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -599,13 +596,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -617,10 +614,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -629,13 +626,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -643,13 +640,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -661,10 +658,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -673,13 +670,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -704,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A022A5C-1A30-4577-8D84-DB6B93DA286A}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,19 +716,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -740,13 +737,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9001</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="2"/>
